--- a/PLSstatic/PLSstatic_predicted_variables_matrix_7.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_7.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.264246585087395</v>
+        <v>-0.2285456021302903</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2827850160489436</v>
+        <v>-0.9492488821387489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1624257500697774</v>
+        <v>-0.4473314759756136</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1832580035252424</v>
+        <v>-1.056489456487291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1382206779627976</v>
+        <v>-0.498877152018381</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1551039166805493</v>
+        <v>-1.530416122729806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.07345267933077115</v>
+        <v>-0.1816220354970723</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08836314178447482</v>
+        <v>-0.8217912260128744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1748370535616742</v>
+        <v>-0.1072946438059379</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1810474589631356</v>
+        <v>0.6712711822651735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4436315774707029</v>
+        <v>-0.3141801510651895</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4395432490152138</v>
+        <v>-0.9402540617027475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2308770830644069</v>
+        <v>-0.4543624128096752</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.201972452040357</v>
+        <v>-0.7531652619036333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4668632554762463</v>
+        <v>-0.5765577983985608</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.417204975557703</v>
+        <v>-1.502978382799211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3265193670068709</v>
+        <v>-0.4572847029734084</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3593872838030344</v>
+        <v>-0.5494389262496754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2502246697754153</v>
+        <v>-0.3152550681314725</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2547192750291112</v>
+        <v>-1.153662761156768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1351712604330408</v>
+        <v>-0.2527015666617348</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1315405208929475</v>
+        <v>-0.788308836981051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.03359885955005319</v>
+        <v>-0.0749596063598424</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.04007535639546643</v>
+        <v>-0.2016235787603602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.03370550763246222</v>
+        <v>-0.2587200422907012</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01272425306490667</v>
+        <v>-0.2975752239844328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1296829604402069</v>
+        <v>-0.1330218959055534</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0966739042021397</v>
+        <v>0.03377220449208486</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2182738174015927</v>
+        <v>-0.2021974204587239</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2595950157118291</v>
+        <v>-0.2809066531631849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4491139949514604</v>
+        <v>0.05013896101029428</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4663594917614807</v>
+        <v>0.4997205414402155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1148154323514796</v>
+        <v>0.02251671216509762</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1028929433506841</v>
+        <v>0.3596779905058352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3468112086787954</v>
+        <v>0.02259866784861345</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3598705064396025</v>
+        <v>0.4354922473442499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1427485719993727</v>
+        <v>-0.1430035481804015</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1741952669760199</v>
+        <v>-0.02307601288939132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4881247786427346</v>
+        <v>0.001160352665126801</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4827244938744258</v>
+        <v>0.2765955462398949</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2685102998725296</v>
+        <v>0.04358583917243557</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2815729173156566</v>
+        <v>0.673526736293705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1467812034433974</v>
+        <v>0.00924777846651384</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1513565770870937</v>
+        <v>0.3464234081472974</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.601203022379769</v>
+        <v>0.7418093705544981</v>
       </c>
       <c r="B24" t="n">
-        <v>2.63599261795184</v>
+        <v>1.634204086777708</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4395350701489536</v>
+        <v>0.1348365744491544</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4107788726791405</v>
+        <v>0.728072978469803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3371230551292247</v>
+        <v>0.1488531563726015</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3098818705029684</v>
+        <v>0.6985023472566052</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1777939544226978</v>
+        <v>0.1025546604068538</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1858369643226906</v>
+        <v>0.7177211418854293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.140607410493099</v>
+        <v>0.2978774132295715</v>
       </c>
       <c r="B28" t="n">
-        <v>1.001860004209253</v>
+        <v>0.9750705587986496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.410252615667862</v>
+        <v>0.5900573471219441</v>
       </c>
       <c r="B29" t="n">
-        <v>2.865026725228726</v>
+        <v>1.697635037468139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9370907978613027</v>
+        <v>0.2003068906414907</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8791938313615366</v>
+        <v>0.7729900924801829</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.351926566104522</v>
+        <v>0.03147667668032685</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3225766930590392</v>
+        <v>0.594698810225738</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7261745291951596</v>
+        <v>0.1674018562183917</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7147232021704435</v>
+        <v>0.9243527168147343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8638088225747109</v>
+        <v>0.116198597946313</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8712760713707083</v>
+        <v>0.8043329125191326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6925650892421661</v>
+        <v>0.08896254713267385</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.72993430149508</v>
+        <v>0.4298682362414687</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8620416716453175</v>
+        <v>0.3941985824917741</v>
       </c>
       <c r="B35" t="n">
-        <v>0.840648935493571</v>
+        <v>1.37037824345451</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8239683098531883</v>
+        <v>0.2675368268508296</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8050635708090518</v>
+        <v>1.033297314844164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7570943691508106</v>
+        <v>0.05768397769491911</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7438518451210553</v>
+        <v>0.3144763238187946</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7009683248328303</v>
+        <v>0.3391397541901515</v>
       </c>
       <c r="B38" t="n">
-        <v>0.692659534011939</v>
+        <v>1.761767527176945</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6125173997241283</v>
+        <v>-0.07508363684379435</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6060876213453704</v>
+        <v>-0.1281075718919199</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7942196997695693</v>
+        <v>0.1429002900458812</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7885195649631206</v>
+        <v>0.9651662496716948</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5631445205651683</v>
+        <v>-0.0881347708681114</v>
       </c>
       <c r="B41" t="n">
-        <v>0.565799183372907</v>
+        <v>0.6563022605677905</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6992983454042276</v>
+        <v>0.2431616990283887</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6917536019675692</v>
+        <v>1.327993780115742</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7056859898293084</v>
+        <v>0.1951268474735019</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7022581315023543</v>
+        <v>1.168210126878793</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6940316004776451</v>
+        <v>-0.1390907336765805</v>
       </c>
       <c r="B44" t="n">
-        <v>0.696905803867347</v>
+        <v>-0.1155862812699684</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7139479542199066</v>
+        <v>-0.09659956304960367</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7163128025470977</v>
+        <v>0.2157738959363079</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.302107785040833</v>
+        <v>-0.1909791062870775</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.296738159511416</v>
+        <v>-0.4998771490212042</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.0113934206463</v>
+        <v>-0.1889153857511643</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.007921180497365</v>
+        <v>-0.4661730655458792</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8914331092373433</v>
+        <v>-0.2258045536236594</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8772466312492606</v>
+        <v>-0.5174113087010024</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6530482142079463</v>
+        <v>-0.221023749255509</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6449673315813951</v>
+        <v>-0.5682130542313183</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.06025236502471543</v>
+        <v>-0.1560859975108737</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05861754292113354</v>
+        <v>-0.3589638811933314</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8603082881058159</v>
+        <v>-0.2108553482898883</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.864921020255933</v>
+        <v>-0.6256082688301617</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8603082881058159</v>
+        <v>-0.2108553482898883</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.864921020255933</v>
+        <v>-0.6256082688301617</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.143732244081792</v>
+        <v>-0.2003845824100484</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.129652704136237</v>
+        <v>-0.4252332136001163</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1808821086268557</v>
+        <v>-0.2031094970425705</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.179129217939485</v>
+        <v>-0.5237129288572019</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.02292390156426</v>
+        <v>-0.1714564274003043</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.014003398797064</v>
+        <v>-0.3146240846005753</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8976969778174956</v>
+        <v>-0.1577884220445736</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9003495623280003</v>
+        <v>-0.4062569261786673</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9901166818157867</v>
+        <v>-0.204320210983713</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9712441288672414</v>
+        <v>-0.5218910148814445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.123545110919295</v>
+        <v>-0.1777825254214953</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.140124209878553</v>
+        <v>-0.5904498575473008</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8198953495423874</v>
+        <v>-0.2146862012650751</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8241446037162199</v>
+        <v>-0.6542169155027874</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4592788091701863</v>
+        <v>-0.2057395778620331</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4665623337098883</v>
+        <v>-0.6323381214408973</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3728156182342778</v>
+        <v>-0.2481888285055462</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3781433915934595</v>
+        <v>-0.3683235323715158</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.227550504335973</v>
+        <v>-0.1584826003877329</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.191181884438672</v>
+        <v>-0.04380153611314741</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.655368916667659</v>
+        <v>-0.3427909322360576</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.665556429378162</v>
+        <v>-1.138481162617415</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9188553630436961</v>
+        <v>-0.2617870985452501</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9072901304544599</v>
+        <v>-0.6580405233340705</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.06268533585425931</v>
+        <v>-0.1909051150815745</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.07287365883746075</v>
+        <v>-0.6625356088187232</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7913455232960973</v>
+        <v>-0.1242398638569124</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7878796166247929</v>
+        <v>-0.1100233957378652</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.7570474870672337</v>
+        <v>-0.07863870715523616</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7711982674850811</v>
+        <v>-0.2828814400549361</v>
       </c>
     </row>
   </sheetData>
